--- a/구매 목록.xlsx
+++ b/구매 목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>AVR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,50 @@
   </si>
   <si>
     <t>https://www.devicemart.co.kr/1358496</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아크릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://acrylfarm.co.kr/goods/goods_view.php?goodsNo=1000000084&amp;inflow=naver&amp;NaPm=ct%3Djgg3pbdc%7Cci%3D0zi0002wnI5ogrPRMeG9%7Ctr%3Dpla%7Chk%3D249b9287e3112c62e9a0c166ac4cfe8f5e297867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300*300, 8T, 투명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*20용 브라켓 20개 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smartstore.naver.com/modern4253/products/2162283653?NaPm=ct%3Djgg3qlo0%7Cci%3D4f3b061c06f5c6a6fc29e0425c4c78fe80d94a55%7Ctr%3Dsls%7Csn%3D563602%7Chk%3Dda52ae7af21a8c1f83c8a785c64885697ba33f87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어펌프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPM32E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리드와이어 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://motorbank.co.kr/product/%EC%97%90%EC%96%B4%ED%8E%8C%ED%94%84-kpm32e-dc-12v-%EC%97%90%EC%96%B4%EB%A1%9C%EC%A1%B8-%ED%8E%8C%ED%94%84aerosol-pump/6199/category/277/display/1/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,8 +252,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -280,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,12 +357,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D11:R26"/>
+  <dimension ref="D11:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,16 +664,21 @@
     <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D12" s="13">
+        <v>43198</v>
+      </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
@@ -737,7 +790,7 @@
       </c>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E19" t="s">
@@ -754,7 +807,7 @@
       </c>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D20" s="10"/>
+      <c r="D20" s="12"/>
       <c r="E20" t="s">
         <v>11</v>
       </c>
@@ -769,7 +822,7 @@
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
@@ -786,7 +839,7 @@
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D22" s="10"/>
+      <c r="D22" s="12"/>
       <c r="E22" t="s">
         <v>25</v>
       </c>
@@ -823,7 +876,7 @@
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
@@ -872,9 +925,91 @@
       <c r="G26" s="5">
         <v>960</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="13">
+        <v>43217</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>11532</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5">
+        <v>3980</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>16500</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -896,8 +1031,11 @@
     <hyperlink ref="I23" r:id="rId10"/>
     <hyperlink ref="I24" r:id="rId11"/>
     <hyperlink ref="I26" r:id="rId12"/>
+    <hyperlink ref="I31" r:id="rId13"/>
+    <hyperlink ref="I32" r:id="rId14"/>
+    <hyperlink ref="I33" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/구매 목록.xlsx
+++ b/구매 목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>AVR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,86 +165,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.jshose.co.kr/shop/shopdetail.html?branduid=487948&amp;search=8a&amp;sort=order&amp;xcode=004&amp;mcode=022&amp;scode=005&amp;GfDT=bGp3UQ%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smartstore.naver.com/motorbank/products/449237776</t>
+  </si>
+  <si>
+    <t>RDA-20 DC12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pair로 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V로 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZH-EK082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴레이 스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/1358496</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아크릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://acrylfarm.co.kr/goods/goods_view.php?goodsNo=1000000084&amp;inflow=naver&amp;NaPm=ct%3Djgg3pbdc%7Cci%3D0zi0002wnI5ogrPRMeG9%7Ctr%3Dpla%7Chk%3D249b9287e3112c62e9a0c166ac4cfe8f5e297867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300*300, 8T, 투명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*20용 브라켓 20개 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smartstore.naver.com/modern4253/products/2162283653?NaPm=ct%3Djgg3qlo0%7Cci%3D4f3b061c06f5c6a6fc29e0425c4c78fe80d94a55%7Ctr%3Dsls%7Csn%3D563602%7Chk%3Dda52ae7af21a8c1f83c8a785c64885697ba33f87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM36-2838E-W 12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DC24V,HPW 2120 - 8A-1/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.jshose.co.kr/shop/shopdetail.html?branduid=487948&amp;search=8a&amp;sort=order&amp;xcode=004&amp;mcode=022&amp;scode=005&amp;GfDT=bGp3UQ%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://smartstore.naver.com/motorbank/products/449237776</t>
-  </si>
-  <si>
-    <t>RDA-20 DC12V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pair로 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V로 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZH-EK082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴레이 스위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/1358496</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아크릴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://acrylfarm.co.kr/goods/goods_view.php?goodsNo=1000000084&amp;inflow=naver&amp;NaPm=ct%3Djgg3pbdc%7Cci%3D0zi0002wnI5ogrPRMeG9%7Ctr%3Dpla%7Chk%3D249b9287e3112c62e9a0c166ac4cfe8f5e297867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300*300, 8T, 투명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20*20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20*20용 브라켓 20개 포함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://smartstore.naver.com/modern4253/products/2162283653?NaPm=ct%3Djgg3qlo0%7Cci%3D4f3b061c06f5c6a6fc29e0425c4c78fe80d94a55%7Ctr%3Dsls%7Csn%3D563602%7Chk%3Dda52ae7af21a8c1f83c8a785c64885697ba33f87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어펌프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KPM32E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리드와이어 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://motorbank.co.kr/product/%EC%97%90%EC%96%B4%ED%8E%8C%ED%94%84-kpm32e-dc-12v-%EC%97%90%EC%96%B4%EB%A1%9C%EC%A1%B8-%ED%8E%8C%ED%94%84aerosol-pump/6199/category/277/display/1/</t>
+    <t>http://item.gmarket.co.kr/Item?goodscode=700534725&amp;pos_shop_cd=SH&amp;pos_class_cd=111111111&amp;pos_class_kind=T&amp;keyword_order=%b1%e2%be%ee%b5%e5%b8%f0%c5%cd+GM&amp;keyword_seqno=14486679132&amp;search_keyword=%ea%b8%b0%ec%96%b4%eb%93%9c%eb%aa%a8%ed%84%b0+GM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,11 +358,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D11:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -676,7 +672,7 @@
       <c r="R11" s="10"/>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>43198</v>
       </c>
     </row>
@@ -694,7 +690,7 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -706,7 +702,7 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -715,10 +711,10 @@
         <v>29500</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="4:18" x14ac:dyDescent="0.3">
@@ -790,7 +786,7 @@
       </c>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E19" t="s">
@@ -807,7 +803,7 @@
       </c>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
       <c r="E20" t="s">
         <v>11</v>
       </c>
@@ -822,7 +818,7 @@
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
@@ -839,7 +835,7 @@
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="E22" t="s">
         <v>25</v>
       </c>
@@ -880,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -889,10 +885,10 @@
         <v>27300</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.3">
@@ -914,10 +910,10 @@
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="6">
         <v>2</v>
@@ -927,12 +923,12 @@
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D29" s="13">
-        <v>43217</v>
+      <c r="D29" s="12">
+        <v>43221</v>
       </c>
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.3">
@@ -949,7 +945,7 @@
         <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -957,7 +953,7 @@
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -966,18 +962,18 @@
         <v>11532</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
         <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -986,30 +982,27 @@
         <v>3980</v>
       </c>
       <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
         <v>52</v>
-      </c>
-      <c r="E33" t="s">
-        <v>53</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="5">
-        <v>16500</v>
-      </c>
-      <c r="H33" t="s">
+        <v>38500</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/구매 목록.xlsx
+++ b/구매 목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>AVR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,34 @@
   </si>
   <si>
     <t>http://item.gmarket.co.kr/Item?goodscode=700534725&amp;pos_shop_cd=SH&amp;pos_class_cd=111111111&amp;pos_class_kind=T&amp;keyword_order=%b1%e2%be%ee%b5%e5%b8%f0%c5%cd+GM&amp;keyword_seqno=14486679132&amp;search_keyword=%ea%b8%b0%ec%96%b4%eb%93%9c%eb%aa%a8%ed%84%b0+GM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기펌프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM555BPV-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://motormart.co.kr/goods_detail.php?goodsIdx=3298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.arduinostory.com/goods/goods_view.php?goodsNo=1000000308&amp;inflow=naver&amp;n_media=27758&amp;n_query=%EC%95%84%EB%91%90%EC%9D%B4%EB%85%B8&amp;n_rank=1&amp;n_ad_group=grp-a001-02-000000006148566&amp;n_ad=nad-a001-02-000000029500341&amp;n_campaign_type=2&amp;n_mall_pid=1000000308&amp;NaPm=ct%3Djh1nyw9k%7Cci%3D0zi0002RgZjo3ceq90Jt%7Ctr%3Dpla%7Chk%3D44ed1c0daca224a69ded50960b95c5f52b82fbf5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우노 키트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +391,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D11:R33"/>
+  <dimension ref="D11:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1003,6 +1034,48 @@
       </c>
       <c r="I33" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D35" s="14">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>27000</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>28600</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1027,8 +1100,10 @@
     <hyperlink ref="I31" r:id="rId13"/>
     <hyperlink ref="I32" r:id="rId14"/>
     <hyperlink ref="I33" r:id="rId15"/>
+    <hyperlink ref="I36" r:id="rId16"/>
+    <hyperlink ref="I37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>